--- a/Nuclear_Fuel_Performance/NE533_Spring2023/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2023/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B46AAF-59C5-8C47-B8EC-DB4336E738FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329671A0-9AD6-EF45-A5EE-6559AB4E6939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="5380" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,13 +757,28 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="3" t="e">
-        <f>AVERAGE(C10:G10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="3" t="e">
-        <f>STDEV(C10:G10)</f>
-        <v>#DIV/0!</v>
+      <c r="C10">
+        <v>96</v>
+      </c>
+      <c r="D10">
+        <v>94</v>
+      </c>
+      <c r="E10">
+        <v>93</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <f>AVERAGE(C10:H10)</f>
+        <v>90.6</v>
+      </c>
+      <c r="K10" s="3">
+        <f>STDEV(C10:H10)</f>
+        <v>11.82370500308593</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>16</v>
@@ -787,6 +802,21 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
+      <c r="C12">
+        <v>0.16</v>
+      </c>
+      <c r="D12">
+        <v>0.16</v>
+      </c>
+      <c r="E12">
+        <v>0.16</v>
+      </c>
+      <c r="F12">
+        <v>0.16</v>
+      </c>
+      <c r="H12">
+        <v>0.16</v>
+      </c>
       <c r="M12" s="2" t="s">
         <v>20</v>
       </c>
@@ -795,6 +825,26 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f>(C10+C11)*C12</f>
+        <v>15.36</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:F13" si="1">(D10+D11)*D12</f>
+        <v>15.040000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>14.88</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13" si="2">(H10+H11)*H12</f>
+        <v>16</v>
+      </c>
       <c r="M13" s="2" t="s">
         <v>22</v>
       </c>
@@ -929,23 +979,23 @@
       </c>
       <c r="C31">
         <f>SUM(C9,C20,C13,C17,C25)</f>
-        <v>13.44</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="C31:G31" si="1">SUM(D9,D20,D13,D17,D25)</f>
-        <v>15.36</v>
+        <f>SUM(D9,D20,D13,D17,D25)</f>
+        <v>30.4</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
-        <v>14.08</v>
+        <f>SUM(E9,E20,E13,E17,E25)</f>
+        <v>28.96</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
-        <v>14.4</v>
+        <f>SUM(F9,F20,F13,F17,F25)</f>
+        <v>25.6</v>
       </c>
       <c r="H31">
         <f>SUM(H9,H20,H13,H17,H25)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
@@ -972,19 +1022,19 @@
       </c>
       <c r="C34" s="1">
         <f>C31/$H$31</f>
-        <v>0.84</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:F34" si="2">D31/$H$31</f>
-        <v>0.96</v>
+        <f t="shared" ref="D34:F34" si="3">D31/$H$31</f>
+        <v>0.95</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="2"/>
-        <v>0.88</v>
+        <f t="shared" si="3"/>
+        <v>0.90500000000000003</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
+        <f t="shared" si="3"/>
+        <v>0.8</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -994,7 +1044,7 @@
       </c>
       <c r="H36">
         <f>SUM(H25,H20,H17,H13,H9)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE533_Spring2023/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2023/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329671A0-9AD6-EF45-A5EE-6559AB4E6939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B943D-0011-FD4A-9FF9-DEBAC2C23044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="5380" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -856,13 +856,28 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="e">
+      <c r="C14">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>104</v>
+      </c>
+      <c r="E14">
+        <v>101</v>
+      </c>
+      <c r="F14">
+        <v>97</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <f>AVERAGE(C14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="3" t="e">
+        <v>101.5</v>
+      </c>
+      <c r="K14" s="3">
         <f>STDEV(C14:G14)</f>
-        <v>#DIV/0!</v>
+        <v>3.3166247903553998</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>24</v>
@@ -886,6 +901,21 @@
       <c r="B16" t="s">
         <v>0</v>
       </c>
+      <c r="C16">
+        <v>0.16</v>
+      </c>
+      <c r="D16">
+        <v>0.16</v>
+      </c>
+      <c r="E16">
+        <v>0.16</v>
+      </c>
+      <c r="F16">
+        <v>0.16</v>
+      </c>
+      <c r="H16">
+        <v>0.16</v>
+      </c>
       <c r="M16" s="2" t="s">
         <v>28</v>
       </c>
@@ -894,6 +924,26 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>(C14+C15)*C16</f>
+        <v>16.64</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:H17" si="3">(D14+D15)*D16</f>
+        <v>16.64</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>16.16</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>15.52</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H16:H17" si="4">(H14+H15)*H16</f>
+        <v>16</v>
+      </c>
       <c r="M17" s="2" t="s">
         <v>30</v>
       </c>
@@ -979,23 +1029,23 @@
       </c>
       <c r="C31">
         <f>SUM(C9,C20,C13,C17,C25)</f>
-        <v>28.799999999999997</v>
+        <v>45.44</v>
       </c>
       <c r="D31">
         <f>SUM(D9,D20,D13,D17,D25)</f>
-        <v>30.4</v>
+        <v>47.04</v>
       </c>
       <c r="E31">
         <f>SUM(E9,E20,E13,E17,E25)</f>
-        <v>28.96</v>
+        <v>45.120000000000005</v>
       </c>
       <c r="F31">
         <f>SUM(F9,F20,F13,F17,F25)</f>
-        <v>25.6</v>
+        <v>41.120000000000005</v>
       </c>
       <c r="H31">
         <f>SUM(H9,H20,H13,H17,H25)</f>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
@@ -1022,19 +1072,19 @@
       </c>
       <c r="C34" s="1">
         <f>C31/$H$31</f>
-        <v>0.89999999999999991</v>
+        <v>0.94666666666666666</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:F34" si="3">D31/$H$31</f>
-        <v>0.95</v>
+        <f t="shared" ref="D34:F34" si="5">D31/$H$31</f>
+        <v>0.98</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="3"/>
-        <v>0.90500000000000003</v>
+        <f t="shared" si="5"/>
+        <v>0.94000000000000006</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
+        <f t="shared" si="5"/>
+        <v>0.8566666666666668</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1044,7 +1094,7 @@
       </c>
       <c r="H36">
         <f>SUM(H25,H20,H17,H13,H9)</f>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE533_Spring2023/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2023/grading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B943D-0011-FD4A-9FF9-DEBAC2C23044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E7B143-E59B-F147-B54B-BE8EBBA1127B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="5380" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="6900" yWindow="3280" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:N36"/>
+  <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,7 +929,7 @@
         <v>16.64</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:H17" si="3">(D14+D15)*D16</f>
+        <f t="shared" ref="D17:F17" si="3">(D14+D15)*D16</f>
         <v>16.64</v>
       </c>
       <c r="E17">
@@ -941,7 +941,7 @@
         <v>15.52</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H16:H17" si="4">(H14+H15)*H16</f>
+        <f t="shared" ref="H17" si="4">(H14+H15)*H16</f>
         <v>16</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -974,127 +974,231 @@
       <c r="B19" t="s">
         <v>39</v>
       </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="3" t="e">
-        <f>AVERAGE(D22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="3" t="e">
-        <f>STDEV(D22:G22)</f>
-        <v>#DIV/0!</v>
+      <c r="C20">
+        <v>0.16</v>
+      </c>
+      <c r="D20">
+        <v>0.16</v>
+      </c>
+      <c r="E20">
+        <v>0.16</v>
+      </c>
+      <c r="F20">
+        <v>0.16</v>
+      </c>
+      <c r="H20">
+        <v>0.16</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>95</v>
+      </c>
+      <c r="D23">
+        <v>95</v>
+      </c>
+      <c r="E23">
+        <v>98</v>
+      </c>
+      <c r="F23">
+        <v>97</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
+        <f>AVERAGE(D23:G23)</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="K23" s="3">
+        <f>STDEV(D23:G23)</f>
+        <v>1.5275252316519468</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.16</v>
+      </c>
+      <c r="D24">
+        <v>0.16</v>
+      </c>
+      <c r="E24">
+        <v>0.16</v>
+      </c>
+      <c r="F24">
+        <v>0.16</v>
+      </c>
+      <c r="H24">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>37</v>
+      <c r="C26">
+        <f>C24*C23</f>
+        <v>15.200000000000001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:F26" si="5">D24*D23</f>
+        <v>15.200000000000001</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>15.68</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>15.52</v>
+      </c>
+      <c r="H26">
+        <f>H24*H23</f>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="J27" s="3" t="e">
+        <f>AVERAGE(D27:G27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="3" t="e">
+        <f>STDEV(D27:G27)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.2</v>
+      </c>
+      <c r="D28">
+        <v>0.2</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+      <c r="F28">
+        <v>0.2</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>56</v>
+      <c r="H30">
+        <f>H28*H27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <f>SUM(C9,C20,C13,C17,C25)</f>
-        <v>45.44</v>
-      </c>
-      <c r="D31">
-        <f>SUM(D9,D20,D13,D17,D25)</f>
-        <v>47.04</v>
-      </c>
-      <c r="E31">
-        <f>SUM(E9,E20,E13,E17,E25)</f>
-        <v>45.120000000000005</v>
-      </c>
-      <c r="F31">
-        <f>SUM(F9,F20,F13,F17,F25)</f>
-        <v>41.120000000000005</v>
-      </c>
-      <c r="H31">
-        <f>SUM(H9,H20,H13,H17,H25)</f>
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:E32" si="6">SUM(C9,C21,C13,C17,C26)</f>
+        <v>60.64</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="6"/>
+        <v>62.24</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>60.800000000000004</v>
+      </c>
+      <c r="F32">
+        <f>SUM(F9,F21,F13,F17,F26)</f>
+        <v>56.64</v>
+      </c>
+      <c r="H32">
+        <f>SUM(H9,H21,H13,H17,H26)</f>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="3" t="e">
-        <f>AVERAGE(D33:G33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="3" t="e">
-        <f>STDEV(D33:G33)</f>
-        <v>#DIV/0!</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="3" t="e">
+        <f>AVERAGE(D34:G34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="3" t="e">
+        <f>STDEV(D34:G34)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="1">
-        <f>C31/$H$31</f>
-        <v>0.94666666666666666</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" ref="D34:F34" si="5">D31/$H$31</f>
-        <v>0.98</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="5"/>
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="5"/>
-        <v>0.8566666666666668</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+      <c r="C35" s="1">
+        <f>C32/$H$32</f>
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35:F35" si="7">D32/$H$32</f>
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="7"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="7"/>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>33</v>
-      </c>
-      <c r="H36">
-        <f>SUM(H25,H20,H17,H13,H9)</f>
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE533_Spring2023/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2023/grading.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E7B143-E59B-F147-B54B-BE8EBBA1127B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6295B4E6-2577-3A42-B474-2898068379D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="3280" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <dimension ref="B2:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,13 +955,28 @@
       <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="3" t="e">
+      <c r="C18">
+        <v>83</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>94</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <f>AVERAGE(C18:G18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="3" t="e">
+        <v>94.25</v>
+      </c>
+      <c r="K18" s="3">
         <f>STDEV(C18:G18)</f>
-        <v>#DIV/0!</v>
+        <v>8.0156097709406993</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>32</v>
@@ -972,7 +987,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -1005,6 +1020,28 @@
       </c>
       <c r="H20">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>(C18+C19)*C20</f>
+        <v>14.08</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:F21" si="5">(D18+D19)*D20</f>
+        <v>16.8</v>
+      </c>
+      <c r="E21">
+        <f>(E18+E19)*E20</f>
+        <v>16.8</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>15.84</v>
+      </c>
+      <c r="H21">
+        <f>(H18+H19)*H20</f>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
@@ -1066,15 +1103,15 @@
         <v>15.200000000000001</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:F26" si="5">D24*D23</f>
+        <f t="shared" ref="D26:F26" si="6">D24*D23</f>
         <v>15.200000000000001</v>
       </c>
       <c r="E26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.68</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.52</v>
       </c>
       <c r="H26">
@@ -1136,24 +1173,24 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:E32" si="6">SUM(C9,C21,C13,C17,C26)</f>
-        <v>60.64</v>
+        <f t="shared" ref="C32:E32" si="7">SUM(C9,C21,C13,C17,C26)</f>
+        <v>74.72</v>
       </c>
       <c r="D32">
-        <f t="shared" si="6"/>
-        <v>62.24</v>
+        <f t="shared" si="7"/>
+        <v>79.039999999999992</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
-        <v>60.800000000000004</v>
+        <f t="shared" si="7"/>
+        <v>77.599999999999994</v>
       </c>
       <c r="F32">
         <f>SUM(F9,F21,F13,F17,F26)</f>
-        <v>56.64</v>
+        <v>72.48</v>
       </c>
       <c r="H32">
         <f>SUM(H9,H21,H13,H17,H26)</f>
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
@@ -1180,19 +1217,19 @@
       </c>
       <c r="C35" s="1">
         <f>C32/$H$32</f>
-        <v>0.94750000000000001</v>
+        <v>0.93399999999999994</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:F35" si="7">D32/$H$32</f>
-        <v>0.97250000000000003</v>
+        <f t="shared" ref="D35:F35" si="8">D32/$H$32</f>
+        <v>0.98799999999999988</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="7"/>
-        <v>0.95000000000000007</v>
+        <f t="shared" si="8"/>
+        <v>0.97</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="7"/>
-        <v>0.88500000000000001</v>
+        <f t="shared" si="8"/>
+        <v>0.90600000000000003</v>
       </c>
       <c r="G35" s="1"/>
     </row>

--- a/Nuclear_Fuel_Performance/NE533_Spring2023/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2023/grading.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6295B4E6-2577-3A42-B474-2898068379D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18256F7-028A-A748-9F01-A487F6CAD895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="3280" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="1880" yWindow="1800" windowWidth="21000" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
   <dimension ref="B2:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,30 +1123,33 @@
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="3" t="e">
+      <c r="C27">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>92</v>
+      </c>
+      <c r="E27">
+        <v>94</v>
+      </c>
+      <c r="F27">
+        <v>88</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <f>AVERAGE(D27:G27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="3" t="e">
+        <v>91.333333333333329</v>
+      </c>
+      <c r="K27" s="3">
         <f>STDEV(D27:G27)</f>
-        <v>#DIV/0!</v>
+        <v>3.0550504633038931</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0.2</v>
-      </c>
-      <c r="D28">
-        <v>0.2</v>
-      </c>
-      <c r="E28">
-        <v>0.2</v>
-      </c>
-      <c r="F28">
-        <v>0.2</v>
+        <v>53</v>
       </c>
       <c r="H28">
         <v>0.2</v>
@@ -1154,13 +1157,41 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.2</v>
+      </c>
+      <c r="D29">
+        <v>0.2</v>
+      </c>
+      <c r="E29">
+        <v>0.2</v>
+      </c>
+      <c r="F29">
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f>(C27+C28)*C29</f>
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:F30" si="7">(D27+D28)*D29</f>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="7"/>
+        <v>18.8</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
+        <v>17.600000000000001</v>
+      </c>
       <c r="H30">
         <f>H28*H27</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
@@ -1173,24 +1204,24 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:E32" si="7">SUM(C9,C21,C13,C17,C26)</f>
-        <v>74.72</v>
+        <f>SUM(C9,C21,C13,C17,C26,C30)</f>
+        <v>92.72</v>
       </c>
       <c r="D32">
-        <f t="shared" si="7"/>
-        <v>79.039999999999992</v>
+        <f>SUM(D9,D21,D13,D17,D26,D30)</f>
+        <v>97.44</v>
       </c>
       <c r="E32">
-        <f t="shared" si="7"/>
-        <v>77.599999999999994</v>
+        <f>SUM(E9,E21,E13,E17,E26,E30)</f>
+        <v>96.399999999999991</v>
       </c>
       <c r="F32">
-        <f>SUM(F9,F21,F13,F17,F26)</f>
-        <v>72.48</v>
+        <f>SUM(F9,F21,F13,F17,F26,F30)</f>
+        <v>90.080000000000013</v>
       </c>
       <c r="H32">
-        <f>SUM(H9,H21,H13,H17,H26)</f>
-        <v>80</v>
+        <f>SUM(H9,H21,H13,H17,H26,H30)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
@@ -1217,19 +1248,19 @@
       </c>
       <c r="C35" s="1">
         <f>C32/$H$32</f>
-        <v>0.93399999999999994</v>
+        <v>0.92720000000000002</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" ref="D35:F35" si="8">D32/$H$32</f>
-        <v>0.98799999999999988</v>
+        <v>0.97439999999999993</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="8"/>
-        <v>0.97</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="8"/>
-        <v>0.90600000000000003</v>
+        <v>0.90080000000000016</v>
       </c>
       <c r="G35" s="1"/>
     </row>

--- a/Nuclear_Fuel_Performance/NE533_Spring2023/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2023/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18256F7-028A-A748-9F01-A487F6CAD895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B53BA1-9881-6446-BE9D-486965B9EE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="1800" windowWidth="21000" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -307,9 +307,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -347,7 +347,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -453,7 +453,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -595,7 +595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
